--- a/data/Map115.xlsx
+++ b/data/Map115.xlsx
@@ -700,7 +700,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,355 +708,358 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1064,102 +1067,102 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>

--- a/data/Map115.xlsx
+++ b/data/Map115.xlsx
@@ -700,7 +700,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,37 +708,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -748,318 +748,321 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1067,110 +1070,113 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>

--- a/data/Map115.xlsx
+++ b/data/Map115.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>自動実行</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>EV004</t>
+  </si>
+  <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
   </si>
   <si>
     <t>何か使えそうなものは・・・</t>
@@ -54,6 +60,12 @@
     <t>\n&lt;リリー&gt;これはオシオキが必要みたいね。</t>
   </si>
   <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほら！ごめんなさいは？
 人の本棚勝手に漁ってごめんなさいって
 言いなさいよ。</t>
@@ -69,6 +81,9 @@
 ほら♥嫌なら逃げてみなさいよ♥ほらほらほら♥</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっは♥
 チンポ気持ちよくて逃げられないの？
 踏まれてるのに♥</t>
@@ -82,6 +97,9 @@
     <t>\n&lt;\n[3]&gt;はぁ？もうイクの？</t>
   </si>
   <si>
+    <t>--------ここからクリア------------</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;くくく♥
 おもしろ♥
 その馬鹿ヅラ見てたら満足したわ♥くすくす♥</t>
@@ -272,6 +290,134 @@
     <t>リリーを退治した！</t>
   </si>
   <si>
+    <t>\C[1]助ける</t>
+  </si>
+  <si>
+    <t>助けない</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;うにゃぁ～・・・！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;はぁ・・・はぁ・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;ちょっと！？
+何シコってんの！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;あうっ！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;うっ！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;・・・
+何やってんのあんた。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;こんなことして・・・
+情けをかけたつもり？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;ううん。
+気持ちよすぎて我慢できなかっただけ。
+出ちゃった。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;いや、我慢できなかっただけだ。
+引き分けだな。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;・・・
+後悔しても知らないわよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;た、大変だよ！！
+リリー！！\n[1]！！</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;にゃっ！？
+なんで顔射してんの！！どういう状況！？
+じゃない！そんなことはさておき！</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;みんなが・\.・\.・\.\.
+みんながさらわれちゃったんだよ！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;は？</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;変な女とか、オークとかがバーって来て
+シィナもライムも連れて行っちゃったんだよ！
+\n[1]のお兄さんも！</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;変な女とか、オークとかがバーって来て
+シィナもライムも連れて行っちゃったんだよ！
+\n[1]の妹も！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;あにきも！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;ロメリアも！？</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;止めようと思ったけど・・・！
+ごめん。
+無理だった！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;どういうことなの？
+一体・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;あー、あー。
+もしもし。\n[1]さん。リリーさん。
+聞こえますかー？</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;いきなりで悪いのれすが、
+猫さん達は私が預かってます。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;人質を返して欲しくば、私の研究所まで来てくらさい。
+屋敷の裏の建物です。バルコニーから見えます。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;早く来ないと、人質がどうなっちゃうか分かりませんよ。
+なるべく壊さないように気を付けますが・・・
+待ってますね。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;・・・
+誰？今の声。
+研究所？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;人質・・・？</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;どうやら、本当にさらわれたみたいね。
+・・・
+何なのよ、一体。</t>
+  </si>
+  <si>
+    <t>\n&lt;アーコ&gt;取り返しに行かなきゃ！
+シィナ・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;\n[1]。
+よく分からないけれど、今はあんたと争ってる場合じゃないわ。
+一時休戦よ。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;研究所・・・
+ひとまず、バルコニーに向かいましょ。</t>
+  </si>
+  <si>
     <t>リリーの日記
 恋愛小説</t>
   </si>
@@ -362,6 +508,9 @@
   </si>
   <si>
     <t>EV044</t>
+  </si>
+  <si>
+    <t>アーコ</t>
   </si>
 </sst>
 </file>
@@ -700,7 +849,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,361 +857,541 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1070,134 +1399,401 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>92</v>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map115.xlsx
+++ b/data/Map115.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C85AB3-6945-499A-94B7-63EB9D467EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="244">
   <si>
     <t>自動実行</t>
   </si>
@@ -511,19 +517,450 @@
   </si>
   <si>
     <t>アーコ</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+What is love?</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>Anything useful...</t>
+  </si>
+  <si>
+    <t>Found an ice tome...
+You could freeze things with this.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hey!
+You can't just look through someone's bookshelf!!
+Jerk!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Looks like it's punishment time.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora! Are you sorry?
+Let me hear you say you're sorry for looking through
+someone else's bookshelf.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Oh, what's this? You've got an erection.
+Ahhh, I see how it is♥
+You got me angry on purpose so I would do this.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Masochist.
+Doesn't that feel bad♥
+Hora♥ Run away then, if it feels so bad♥ Hora hora hora♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa♥
+You can't run away because your cock feels so nice?
+Even though I'm just stepping on it♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;No. You won't escape.
+Cum for me now.
+I'll stomp on each and every bit of your semen.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Huh? Cumming already?</t>
+  </si>
+  <si>
+    <t>The shelves are lined with romance novels...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I guess succubi read romance novels too...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Oh, I've read this one before. They kill off
+the heroine at the end for some cheap tears...
+I hate that kind of thing.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Oh, I've read this one. The more interesting
+heroine loses out in the end.
+It was such an unsatisfying ending.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Ah, I've read this one before.
+Her lover was actually her divorced father.
+Who is actually into that?)</t>
+  </si>
+  <si>
+    <t>A doll...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I always thought I'd outgrow dolls once I got older.
+And yet, my chest gets tight every time I see one.
+I love dolls.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(It feels like I'm in a girl's room.
+I'm getting nervous all of a sudden...)</t>
+  </si>
+  <si>
+    <t>A stuffed animal...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Why is there only one bear? That's strange.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Just one bear...? Something's strange here.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Why is a bear the standard stuffed animal?
+Dogs are way cuter.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Bears are so strong...
+Toe to tip, they're pure killing machines.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Bears are so ferocious.
+The real thing isn't nearly this cute.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Do succubi also hug stuffed animals while they sleep?)</t>
+  </si>
+  <si>
+    <t>There was something stuck in the seams of the bear...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Little bear.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder if a bear could take on a gorilla.)</t>
+  </si>
+  <si>
+    <t>Laundry...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Perhaps these clothes belonged to the people who
+used to live here. This looks like a maid outfit.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Best not to get too close to a succubus' clothing...)</t>
+  </si>
+  <si>
+    <t>A beautiful dress.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wanna wear this.
+But they'd make fun of me if they caught me
+wearing this dress instead of my prison uniform.)</t>
+  </si>
+  <si>
+    <t>A giant, heavy necklace...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(My neck already feels stiff.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I could use this to train my neck muscles...)</t>
+  </si>
+  <si>
+    <t>An unfinished letter sits on the table...</t>
+  </si>
+  <si>
+    <t>I'm sorry I haven't written more frequently.</t>
+  </si>
+  <si>
+    <t>Sometimes I want to return home and show you how I'm doing.
+I'm healthy, and surrounded by wonderful people.
+I need to gain experience, and become a great maid.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder how the person who wrote this is doing now...)</t>
+  </si>
+  <si>
+    <t>A bucket of water.</t>
+  </si>
+  <si>
+    <t>Repair request: Automatic sliding doors
+The sliding doors installed in the master's room are no longer
+opening and closing automatically.</t>
+  </si>
+  <si>
+    <t>As it is, you must use a key to open and close it.
+All it is now, is a heavy, poorly constructed door.
+The master is getting frustrated.</t>
+  </si>
+  <si>
+    <t>I'm not a mechanic, but it seems like the door
+isn't receiving enough power.
+Please repair it as soon as possible.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+So you're here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I must say, I underestimated you.
+Between the 3 of us, we captured you so easily.
+I was so sure you were some small-time hunter.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;My apologies.
+It was rude of me not to face you as a true opponent.
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Let me tell you something.
+I'm holding the keys to the front door right now.
+If you beat me, you get to go home.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;But let me tell you something else.
+That's never going to happen♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Shina.\..\..\.\.Lime.\..\..\.\.
+.\..\..\.\.
+I'm sorry.\..\..\.\.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;It.\..\..\.\.Feels.\..\..♥\.\.
+So good.\..\..\.♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Haah...♥ Haah...♥
+What... What's... Happening...♥
+Dammit...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;How could you...♥</t>
+  </si>
+  <si>
+    <t>Lily was defeated!</t>
+  </si>
+  <si>
+    <t>\C[1]Save her</t>
+  </si>
+  <si>
+    <t>Don't save her</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hyaaah～...!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hah... Hah...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Aaaah!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Uwaah!!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Not at all.
+I couldn't endure because it felt so good.
+I lost.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;No. I wasn't able to endure.
+We'll call it a draw.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Meria!?</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Test, test.
+Hello. \n[1]. Lily.
+Can you hear me?</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;You'd better hurry, I don't know what could happen to them.
+I'll do my best not to break them but...
+I'll be waiting.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hostages...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What!?
+What are you doing!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+What have you done.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Does this mean...
+You're taking pity on me?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+You may live to regret this.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;How could this happen?
+What in the world...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+Who was that? That voice just now...
+A research center?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;\n[1].
+I don't really know what's going on, but now's not the time for us
+to be fighting. I'm calling a truce.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A research center...
+Let's head to the balcony for now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;S-something's happened!!
+Lily!! \n[1]!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Everyone's.\..\..\.\.
+Everyone's been kidnapped!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I thought I could stop them...!
+I'm sorry.
+They were too strong!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;We need to go get them back!
+Shina...</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Romance Novels</t>
+  </si>
+  <si>
+    <t>There's some kind of chest up there.
+It's too high up to reach...</t>
+  </si>
+  <si>
+    <t>Shoujo manga lines the shelf...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Ah, I've read this one...
+The heroine's and the boy's parents divorce and remarry one another.
+It's kinda ridiculous now that I'm thinking about it again.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(So even succubi read shoujo manga...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Oh, I've read this one before...
+He spilled sweet potato fries in her hair...
+Their love blossomed from that moment.)</t>
+  </si>
+  <si>
+    <t>Maid outfits are hanging in the closet...</t>
+  </si>
+  <si>
+    <t>The clock keeps ticking...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder how long I'll be trapped here...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I've lost all sense of time...
+I need to get out of here soon...)</t>
+  </si>
+  <si>
+    <t>Nothing else useful...</t>
+  </si>
+  <si>
+    <t>You see yourself in the mirror...</t>
+  </si>
+  <si>
+    <t>A house plant...
+It smells nice.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(What a soft, sweet scent...
+And... It's turning me on a bit.)</t>
+  </si>
+  <si>
+    <t>A hat...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(This kind of hat looks good on a classy lady.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(This type of hat really doesn't suit me well.
+I'm not suited for hats. How sad.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Kukuku♥
+You're so funny♥
+Seeing your stupid face has made me feel better♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Next time you break into my room though,
+sorry just won't cut it.
+I'm going to fuck you senseless.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nyaaah!? Why is there cum on your face!?
+What did I just walk in on!?
+Wait! Now's not the time for that!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;A strange woman and an orc appeared from the balcony,
+and swiped Shina and Lime away from me!
+\n[1]'s brother too!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;A strange woman and an orc appeared from the balcony,
+and swiped Shina and Lime away from me!
+\n[1]'s sister too!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Alsy!?</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;I've got some bad news,
+I'm keeping your cats.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;If you want my hostages back, come to my research center.
+It's the building behind the mansion. \nYou'll see it from the balcony.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;They really were kidnapped.
+...
+What the hell is going on.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(A maid outfit... I want to try wearing one.
+I wonder if it would suit me.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(This really feels like a girl's room...
+It's making me uncomfortable...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(No, it's not the plant.
+It's this whole room...
+Ugh, this smell...)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -534,28 +971,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -845,19 +1294,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B114" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -873,39 +1324,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -913,133 +1376,169 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="C20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1047,215 +1546,293 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1263,71 +1840,95 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1335,47 +1936,62 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1383,215 +1999,425 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="C69" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="C70" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="B88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="B91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1599,7 +2425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -1607,159 +2433,216 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -1767,7 +2650,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -1775,7 +2658,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -1783,7 +2666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -1791,23 +2674,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>